--- a/biology/Botanique/Eruca/Eruca.xlsx
+++ b/biology/Botanique/Eruca/Eruca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eruca est un genre de plantes annuelles de la famille des Brassicacées (ou Crucifères) originaires du bassin méditerranéen.
-Le nom vient du latin eruca (provenant probablement du latin urere, « brûler », du fait de la saveur fortement piquante de la plante), qui a donné le bas-latin ruca, puis le diminutif en vieil italien ruchetta et le mot français roquette apparu en 1538[2]. Selon les régions, on l'appelle aussi rucola (Suisse, probablement à cause du nom en allemand et en italien), rouquette (Roussillon) ou riquette (Nice).
+Le nom vient du latin eruca (provenant probablement du latin urere, « brûler », du fait de la saveur fortement piquante de la plante), qui a donné le bas-latin ruca, puis le diminutif en vieil italien ruchetta et le mot français roquette apparu en 1538. Selon les régions, on l'appelle aussi rucola (Suisse, probablement à cause du nom en allemand et en italien), rouquette (Roussillon) ou riquette (Nice).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nombre d'espèces est contesté, certaines autorités acceptent une seule espèce, alors que d'autres acceptent jusque cinq espèces. Les espèces suivantes sont acceptées par le Med-Check-list[3],[4]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nombre d'espèces est contesté, certaines autorités acceptent une seule espèce, alors que d'autres acceptent jusque cinq espèces. Les espèces suivantes sont acceptées par le Med-Check-list,:
 Eruca loncholoma (Pomel) O.E.Schulz
 Eruca pinnatifida (Desf.) Pomel (syn. E. sativa subsp. pinnatifida (Desf.) Batt.; E. vesicaria subsp. pinnatifida (Desf.) Emberger &amp; Maire)
 Eruca sativa Mill. (syn. E. vesicaria subsp. sativa (Mill.) Thell.) - la roquette cultivée
@@ -549,12 +563,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des plantes annuelles de 20 à 100 cm de hauteur.
 Les feuilles sont profondément lobées avec quatre à dix petits lobes latéraux et un grand lobe terminal. Elles ressemblent à celles des radis et des navets, botaniquement très proches, et ont une saveur piquante et poivrée.
 La roquette a des fleurs blanches veinées de brun ou de violet mesurant environ 2 cm de diamètre disposées en corymbes typique des Brassicaceae. Les étamines sont jaunes.
-Le fruit est une silique de 12 à 25 mm de long avec un bec apical, contenant plusieurs graines[5],[6].
+Le fruit est une silique de 12 à 25 mm de long avec un bec apical, contenant plusieurs graines,.
 </t>
         </is>
       </c>
